--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -91,25 +91,25 @@
     <t>safe</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>care</t>
@@ -640,7 +640,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1100,25 +1100,25 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6926406926406926</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L12">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="M12">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,25 +1126,25 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6777777777777778</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1204,25 +1204,25 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.573170731707317</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L16">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1230,25 +1230,25 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.5614035087719298</v>
+        <v>0.5590551181102362</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1256,25 +1256,25 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.5590551181102362</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="L18">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="M18">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="10:17">
